--- a/candidate_status_automation/candidates.xlsx
+++ b/candidate_status_automation/candidates.xlsx
@@ -598,7 +598,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Screening</t>
+          <t>Offer</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
